--- a/data/trans_dic/P36BPD04_R_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD04_R_2023-Estudios-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.7854434088194109</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.8132802586603527</v>
+        <v>0.8132802586603528</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8017692951399916</v>
+        <v>0.8017692951399917</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7501253400891243</v>
+        <v>0.748021419309273</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.791350103809075</v>
+        <v>0.7895705363218254</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7837892032506175</v>
+        <v>0.7826985335860639</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8194835514496184</v>
+        <v>0.8186290084161065</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8344422757467822</v>
+        <v>0.8359020793320093</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8213598397102568</v>
+        <v>0.8212627959705243</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7220127744773657</v>
+        <v>0.7224670826668738</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7662293517602062</v>
+        <v>0.7664120964733085</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7503347191457966</v>
+        <v>0.7495909660276219</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7649185562948591</v>
+        <v>0.7640744218135024</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8005935957110633</v>
+        <v>0.8018106616665183</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7770323361173294</v>
+        <v>0.7778984081059427</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.7888515526486376</v>
+        <v>0.7888515526486373</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.7946477467715684</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7917963134293188</v>
+        <v>0.7917963134293184</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7509348629941728</v>
+        <v>0.7523291585305808</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7649453182187929</v>
+        <v>0.7660487234903725</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7701702997570888</v>
+        <v>0.7704913276675107</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8174824570905315</v>
+        <v>0.8197926338561816</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8196362058783373</v>
+        <v>0.8210496847083907</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8129072340166662</v>
+        <v>0.8133498331832324</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.7596647687662822</v>
+        <v>0.7596647687662821</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.792573169356656</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7428171122233579</v>
+        <v>0.7420785267463212</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7794703249467623</v>
+        <v>0.7799506809460662</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7657732177240274</v>
+        <v>0.7657629782476351</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7747187223668409</v>
+        <v>0.7760211311312948</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8053011785814309</v>
+        <v>0.8041879203431709</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7870310665433298</v>
+        <v>0.7862263860096591</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>433969</v>
+        <v>432752</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>649321</v>
+        <v>647861</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1096562</v>
+        <v>1095036</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>474095</v>
+        <v>473601</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>684679</v>
+        <v>685877</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1149125</v>
+        <v>1148989</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1609717</v>
+        <v>1610730</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1662920</v>
+        <v>1663317</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3301284</v>
+        <v>3298012</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1705374</v>
+        <v>1703492</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1737499</v>
+        <v>1740141</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>3418747</v>
+        <v>3422558</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>534355</v>
+        <v>535348</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>562141</v>
+        <v>562952</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1114024</v>
+        <v>1114488</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>581710</v>
+        <v>583354</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>602332</v>
+        <v>603371</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1175841</v>
+        <v>1176481</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2614420</v>
+        <v>2611820</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2904045</v>
+        <v>2905834</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5548230</v>
+        <v>5548156</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2726701</v>
+        <v>2731285</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>3000282</v>
+        <v>2996134</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5702249</v>
+        <v>5696419</v>
       </c>
     </row>
     <row r="20">
